--- a/biology/Botanique/Strychnos_nux-vomica/Strychnos_nux-vomica.xlsx
+++ b/biology/Botanique/Strychnos_nux-vomica/Strychnos_nux-vomica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vomiquier
 Le Vomiquier (Strychnos nux-vomica) est une espèce d'arbres à feuillage persistant, originaire de l'Asie du Sud-Est, de la famille des Loganiacées. Sa graine, la noix vomique, fournit un alcaloïde indolé neurotoxique : la strychnine.
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Strychnos nux-vomica pousse dans des habitats ouverts. C'est un arbre de forme columnaire étroite et il atteint d'habitude une taille d'environ 25 mètres.
-Il est la source principale de strychnine, un alcaloïde extrêmement toxique[1], obtenu à partir des semences contenues dans ses fruits, appelés noix qui font vomir ou plus souvent noix vomiques. Ce sont des fruits ronds, et de couleur vert à orange. Cependant, l'écorce de l'arbre contient aussi des composés toxiques, parmi lesquels la brucine.
+Il est la source principale de strychnine, un alcaloïde extrêmement toxique, obtenu à partir des semences contenues dans ses fruits, appelés noix qui font vomir ou plus souvent noix vomiques. Ce sont des fruits ronds, et de couleur vert à orange. Cependant, l'écorce de l'arbre contient aussi des composés toxiques, parmi lesquels la brucine.
 Il donne l'alcaloïde strychnochrysine.
 </t>
         </is>
